--- a/output/Privato.xlsx
+++ b/output/Privato.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Società</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Indirizzo</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Provincia</t>
+          <t>Stato/Provincia</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>E-Mail</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -501,52 +501,52 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Partita IVA</t>
+          <t>Partita Iva</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Codice fiscale</t>
+          <t>Codice Fiscale</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Nome referente</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Cognome referente</t>
+          <t>Cognome</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Forma giuridica</t>
+          <t>Forma Giuridica</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Provenienza</t>
+          <t>Fonte del lead</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Km annui percorsi</t>
+          <t>Km Annui Percorsi</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Fatturato</t>
+          <t>Reddito annuale</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>GDPR</t>
+          <t>Consenso Privacy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Consenso Promozioni e Newsletter</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Data creazione</t>
+          <t>Data Richiesta</t>
         </is>
       </c>
     </row>
